--- a/amc_resources/ab_class_updated_b.xlsx
+++ b/amc_resources/ab_class_updated_b.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C564"/>
+  <dimension ref="A1:C565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9890,6 +9890,23 @@
         </is>
       </c>
     </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>nitazoxanide,ofloxacin</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>Combinations of antibacterials</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>Uncategorized</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
